--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Maxconnect.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Maxconnect.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Còn BH</t>
   </si>
   <si>
-    <t>WP22060144S00036/</t>
-  </si>
-  <si>
     <t>125.212.203.250,21083</t>
   </si>
   <si>
@@ -268,6 +265,15 @@
   </si>
   <si>
     <t>Thiết bị lúc nhận sim lúc không</t>
+  </si>
+  <si>
+    <t>WP22060144S00036/003200506C</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
   </si>
 </sst>
 </file>
@@ -719,6 +725,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -736,30 +766,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1070,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1103,41 +1109,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1182,58 +1188,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1258,23 +1264,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,13 +1305,13 @@
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="65" t="s">
         <v>69</v>
-      </c>
-      <c r="J6" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="65" t="s">
-        <v>70</v>
       </c>
       <c r="L6" s="66"/>
       <c r="M6" s="66"/>
@@ -1316,7 +1322,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1336,7 +1342,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F7" s="59" t="s">
         <v>66</v>
@@ -1345,19 +1351,33 @@
         <v>67</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="63" t="s">
+        <v>68</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1386,7 +1406,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1415,7 +1435,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1444,7 +1464,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1473,7 +1493,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1502,7 +1522,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1533,7 +1553,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1562,7 +1582,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1591,7 +1611,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1620,7 +1640,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1738,7 +1758,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2207,7 +2227,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2271,7 +2291,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3336,13 +3356,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3354,6 +3367,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3397,39 +3417,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3474,58 +3494,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3550,23 +3570,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3592,7 +3612,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3623,7 +3643,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3652,7 +3672,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3681,7 +3701,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3710,7 +3730,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3739,7 +3759,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3768,7 +3788,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3799,7 +3819,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3828,7 +3848,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3857,7 +3877,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3886,7 +3906,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5602,6 +5622,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5613,13 +5640,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5663,39 +5683,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5740,58 +5760,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5816,23 +5836,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5858,7 +5878,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5889,7 +5909,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5918,7 +5938,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5947,7 +5967,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5976,7 +5996,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6005,7 +6025,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6034,7 +6054,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6065,7 +6085,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6094,7 +6114,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6123,7 +6143,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6152,7 +6172,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7868,6 +7888,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7879,13 +7906,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7929,39 +7949,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8006,58 +8026,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8082,23 +8102,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8124,7 +8144,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8155,7 +8175,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8184,7 +8204,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8213,7 +8233,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8242,7 +8262,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8271,7 +8291,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8300,7 +8320,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8331,7 +8351,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8360,7 +8380,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8389,7 +8409,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8418,7 +8438,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10134,6 +10154,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10145,13 +10172,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10195,39 +10215,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10272,58 +10292,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10348,23 +10368,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10390,7 +10410,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10421,7 +10441,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10450,7 +10470,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10479,7 +10499,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10508,7 +10528,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10537,7 +10557,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10566,7 +10586,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10597,7 +10617,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10626,7 +10646,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10655,7 +10675,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10684,7 +10704,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12400,6 +12420,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12411,13 +12438,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12461,39 +12481,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12538,58 +12558,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12614,23 +12634,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12656,7 +12676,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12687,7 +12707,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12716,7 +12736,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12745,7 +12765,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12774,7 +12794,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12803,7 +12823,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12832,7 +12852,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12863,7 +12883,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12892,7 +12912,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12921,7 +12941,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12950,7 +12970,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14666,6 +14686,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14677,13 +14704,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14727,39 +14747,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14804,58 +14824,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14880,23 +14900,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14922,7 +14942,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14953,7 +14973,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14982,7 +15002,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15011,7 +15031,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15040,7 +15060,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15069,7 +15089,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15098,7 +15118,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15129,7 +15149,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15158,7 +15178,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15187,7 +15207,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15216,7 +15236,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16932,6 +16952,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16943,13 +16970,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16993,39 +17013,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17070,58 +17090,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17146,23 +17166,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17188,7 +17208,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17219,7 +17239,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17248,7 +17268,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17277,7 +17297,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17306,7 +17326,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17335,7 +17355,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17364,7 +17384,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17395,7 +17415,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17424,7 +17444,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17453,7 +17473,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17482,7 +17502,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19198,6 +19218,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19209,13 +19236,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19259,39 +19279,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19336,58 +19356,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19412,23 +19432,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19454,7 +19474,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19485,7 +19505,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19514,7 +19534,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19543,7 +19563,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19572,7 +19592,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19601,7 +19621,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19630,7 +19650,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19661,7 +19681,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19690,7 +19710,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19719,7 +19739,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19748,7 +19768,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20979,13 +20999,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20997,6 +21010,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Maxconnect.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Maxconnect.xlsx
@@ -725,30 +725,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -766,6 +742,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1076,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1109,41 +1109,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1188,58 +1188,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1264,23 +1264,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,7 +1322,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1553,7 +1553,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3356,6 +3356,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3367,13 +3374,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3417,39 +3417,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3494,58 +3494,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3570,23 +3570,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3612,7 +3612,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3643,7 +3643,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3701,7 +3701,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3730,7 +3730,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3788,7 +3788,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3819,7 +3819,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3877,7 +3877,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5622,13 +5622,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5640,6 +5633,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5683,39 +5683,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5760,58 +5760,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5836,23 +5836,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5878,7 +5878,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5909,7 +5909,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5938,7 +5938,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5967,7 +5967,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5996,7 +5996,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6025,7 +6025,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6054,7 +6054,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6085,7 +6085,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6143,7 +6143,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6172,7 +6172,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7888,13 +7888,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7906,6 +7899,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7949,39 +7949,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8026,58 +8026,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8102,23 +8102,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8144,7 +8144,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8175,7 +8175,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8204,7 +8204,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8233,7 +8233,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8262,7 +8262,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8291,7 +8291,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8320,7 +8320,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8351,7 +8351,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8380,7 +8380,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8409,7 +8409,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8438,7 +8438,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10154,13 +10154,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10172,6 +10165,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10215,39 +10215,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10292,58 +10292,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10368,23 +10368,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10410,7 +10410,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10441,7 +10441,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10470,7 +10470,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10499,7 +10499,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10528,7 +10528,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10557,7 +10557,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10586,7 +10586,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10617,7 +10617,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10646,7 +10646,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10675,7 +10675,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10704,7 +10704,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12420,13 +12420,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12438,6 +12431,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12481,39 +12481,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12558,58 +12558,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12634,23 +12634,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12676,7 +12676,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12707,7 +12707,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12736,7 +12736,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12765,7 +12765,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12794,7 +12794,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12823,7 +12823,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12852,7 +12852,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12883,7 +12883,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12912,7 +12912,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12941,7 +12941,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12970,7 +12970,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14686,13 +14686,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14704,6 +14697,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14747,39 +14747,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14824,58 +14824,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14900,23 +14900,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14942,7 +14942,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14973,7 +14973,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15002,7 +15002,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15031,7 +15031,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15060,7 +15060,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15089,7 +15089,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15118,7 +15118,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15149,7 +15149,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15178,7 +15178,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15207,7 +15207,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15236,7 +15236,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16952,13 +16952,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16970,6 +16963,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17013,39 +17013,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17090,58 +17090,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17166,23 +17166,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17208,7 +17208,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17239,7 +17239,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17268,7 +17268,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17297,7 +17297,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17326,7 +17326,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17355,7 +17355,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17384,7 +17384,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17415,7 +17415,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17444,7 +17444,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17473,7 +17473,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17502,7 +17502,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19218,13 +19218,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19236,6 +19229,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19279,39 +19279,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19356,58 +19356,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19432,23 +19432,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19474,7 +19474,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19505,7 +19505,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19534,7 +19534,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19563,7 +19563,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19592,7 +19592,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19621,7 +19621,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19650,7 +19650,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19681,7 +19681,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19710,7 +19710,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19739,7 +19739,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19768,7 +19768,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20999,6 +20999,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21010,13 +21017,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Maxconnect.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Maxconnect.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -274,6 +274,15 @@
   </si>
   <si>
     <t>Thể</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>IMEI TB MỚI : WSP21060008S0085/0032000ADE</t>
   </si>
 </sst>
 </file>
@@ -725,6 +734,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -742,30 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1077,7 +1086,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1109,41 +1118,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1188,58 +1197,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1264,23 +1273,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1290,7 +1299,9 @@
       <c r="B6" s="61">
         <v>44880</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44886</v>
+      </c>
       <c r="D6" s="59" t="s">
         <v>64</v>
       </c>
@@ -1303,7 +1314,9 @@
       <c r="G6" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>76</v>
+      </c>
       <c r="I6" s="63" t="s">
         <v>68</v>
       </c>
@@ -1314,15 +1327,25 @@
         <v>69</v>
       </c>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>74</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1337,7 +1360,9 @@
       <c r="B7" s="61">
         <v>44880</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="61">
+        <v>44886</v>
+      </c>
       <c r="D7" s="59" t="s">
         <v>64</v>
       </c>
@@ -1377,7 +1402,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1406,7 +1431,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1435,7 +1460,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1464,7 +1489,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1493,7 +1518,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1522,7 +1547,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1553,7 +1578,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1582,7 +1607,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1611,7 +1636,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1640,7 +1665,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1790,7 +1815,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1971,7 +1996,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -2291,7 +2316,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3356,13 +3381,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3374,6 +3392,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3417,39 +3442,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3494,58 +3519,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3570,23 +3595,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3612,7 +3637,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3643,7 +3668,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3672,7 +3697,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3701,7 +3726,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3730,7 +3755,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3759,7 +3784,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3788,7 +3813,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3819,7 +3844,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3848,7 +3873,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3877,7 +3902,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3906,7 +3931,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5622,6 +5647,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5633,13 +5665,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5683,39 +5708,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5760,58 +5785,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5836,23 +5861,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5878,7 +5903,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5909,7 +5934,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5938,7 +5963,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5967,7 +5992,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5996,7 +6021,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6025,7 +6050,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6054,7 +6079,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6085,7 +6110,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6114,7 +6139,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6143,7 +6168,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6172,7 +6197,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7888,6 +7913,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7899,13 +7931,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7949,39 +7974,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8026,58 +8051,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8102,23 +8127,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8144,7 +8169,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8175,7 +8200,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8204,7 +8229,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8233,7 +8258,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8262,7 +8287,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8291,7 +8316,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8320,7 +8345,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8351,7 +8376,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8380,7 +8405,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8409,7 +8434,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8438,7 +8463,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10154,6 +10179,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10165,13 +10197,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10215,39 +10240,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10292,58 +10317,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10368,23 +10393,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10410,7 +10435,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10441,7 +10466,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10470,7 +10495,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10499,7 +10524,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10528,7 +10553,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10557,7 +10582,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10586,7 +10611,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10617,7 +10642,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10646,7 +10671,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10675,7 +10700,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10704,7 +10729,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12420,6 +12445,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12431,13 +12463,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12481,39 +12506,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12558,58 +12583,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12634,23 +12659,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12676,7 +12701,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12707,7 +12732,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12736,7 +12761,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12765,7 +12790,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12794,7 +12819,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12823,7 +12848,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12852,7 +12877,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12883,7 +12908,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12912,7 +12937,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12941,7 +12966,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12970,7 +12995,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14686,6 +14711,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14697,13 +14729,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14747,39 +14772,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14824,58 +14849,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14900,23 +14925,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14942,7 +14967,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14973,7 +14998,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15002,7 +15027,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15031,7 +15056,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15060,7 +15085,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15089,7 +15114,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15118,7 +15143,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15149,7 +15174,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15178,7 +15203,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15207,7 +15232,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15236,7 +15261,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16952,6 +16977,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16963,13 +16995,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17013,39 +17038,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17090,58 +17115,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17166,23 +17191,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17208,7 +17233,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17239,7 +17264,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17268,7 +17293,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17297,7 +17322,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17326,7 +17351,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17355,7 +17380,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17384,7 +17409,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17415,7 +17440,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17444,7 +17469,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17473,7 +17498,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17502,7 +17527,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19218,6 +19243,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19229,13 +19261,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19279,39 +19304,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19356,58 +19381,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19432,23 +19457,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19474,7 +19499,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19505,7 +19530,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19534,7 +19559,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19563,7 +19588,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19592,7 +19617,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19621,7 +19646,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19650,7 +19675,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19681,7 +19706,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19710,7 +19735,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19739,7 +19764,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19768,7 +19793,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20999,13 +21024,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21017,6 +21035,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Maxconnect.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Maxconnect.xlsx
@@ -734,30 +734,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -775,6 +751,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1118,41 +1118,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1197,58 +1197,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1273,23 +1273,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1578,7 +1578,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1665,7 +1665,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3381,6 +3381,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3392,13 +3399,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3442,39 +3442,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3519,58 +3519,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3595,23 +3595,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3637,7 +3637,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3668,7 +3668,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3726,7 +3726,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3755,7 +3755,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3784,7 +3784,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3813,7 +3813,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3844,7 +3844,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3873,7 +3873,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3902,7 +3902,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5647,13 +5647,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5665,6 +5658,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5708,39 +5708,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5785,58 +5785,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5861,23 +5861,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5903,7 +5903,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5934,7 +5934,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5963,7 +5963,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6021,7 +6021,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6050,7 +6050,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6079,7 +6079,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6110,7 +6110,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6139,7 +6139,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6168,7 +6168,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7913,13 +7913,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7931,6 +7924,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7974,39 +7974,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8051,58 +8051,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8127,23 +8127,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8169,7 +8169,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8200,7 +8200,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8229,7 +8229,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8258,7 +8258,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8287,7 +8287,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8316,7 +8316,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8345,7 +8345,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8376,7 +8376,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8405,7 +8405,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8434,7 +8434,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8463,7 +8463,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10179,13 +10179,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10197,6 +10190,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10240,39 +10240,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10317,58 +10317,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10393,23 +10393,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10435,7 +10435,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10466,7 +10466,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10495,7 +10495,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10524,7 +10524,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10553,7 +10553,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10582,7 +10582,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10611,7 +10611,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10642,7 +10642,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10671,7 +10671,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10700,7 +10700,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10729,7 +10729,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12445,13 +12445,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12463,6 +12456,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12506,39 +12506,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12583,58 +12583,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12659,23 +12659,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12701,7 +12701,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12732,7 +12732,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12761,7 +12761,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12790,7 +12790,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12819,7 +12819,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12848,7 +12848,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12877,7 +12877,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12908,7 +12908,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12937,7 +12937,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12966,7 +12966,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12995,7 +12995,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14711,13 +14711,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14729,6 +14722,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14772,39 +14772,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14849,58 +14849,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14925,23 +14925,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14967,7 +14967,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14998,7 +14998,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15027,7 +15027,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15056,7 +15056,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15085,7 +15085,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15114,7 +15114,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15143,7 +15143,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15174,7 +15174,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15203,7 +15203,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15232,7 +15232,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15261,7 +15261,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16977,13 +16977,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16995,6 +16988,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17038,39 +17038,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17115,58 +17115,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17191,23 +17191,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17233,7 +17233,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17264,7 +17264,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17293,7 +17293,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17322,7 +17322,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17351,7 +17351,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17380,7 +17380,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17409,7 +17409,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17440,7 +17440,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17469,7 +17469,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17498,7 +17498,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17527,7 +17527,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19243,13 +19243,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19261,6 +19254,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19304,39 +19304,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19381,58 +19381,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19457,23 +19457,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19499,7 +19499,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19530,7 +19530,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19559,7 +19559,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19588,7 +19588,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19617,7 +19617,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19646,7 +19646,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19675,7 +19675,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19706,7 +19706,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19735,7 +19735,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19764,7 +19764,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19793,7 +19793,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21024,6 +21024,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21035,13 +21042,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
